--- a/sample_timeslots.xlsx
+++ b/sample_timeslots.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8610590cbf95aee3/Desktop/Darsh/thesis-scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7D0964-0049-4B29-A08E-D29A3DEAC1EB}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104824611C5F9A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F2D14C9-D76B-4B01-BCDE-0C0289EC3F75}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -85,9 +96,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -419,14 +431,290 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.64583333333333404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.687500000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.70833333333333304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
